--- a/var_network_inventory.xlsx
+++ b/var_network_inventory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Host</t>
   </si>
@@ -44,10 +44,10 @@
     <t>172.16.10.225</t>
   </si>
   <si>
-    <t>{'name': 'Linux 3.10', 'accuracy': '92', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '92', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '92', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2', 'accuracy': '92', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'Linux 3.16', 'accuracy': '91', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '91', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '91', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '91', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '91', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '91', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 2.6.32', 'accuracy': '90', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '90', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Ubiquiti AirMax NanoStation WAP (Linux 2.6.32)', 'accuracy': '90', 'line': '61697', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}, {'type': 'WAP', 'vendor': 'Ubiquiti', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/h:ubnt:airmax_nanostation']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Linux 3.10', 'accuracy': '90', 'line': '63155', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.10']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '90', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '90', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2', 'accuracy': '90', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '90', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'Crestron XPanel control system', 'accuracy': '89', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '89', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'Linux 3.16', 'accuracy': '89', 'line': '64207', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '89', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '89', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '89', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'OpenWrt Kamikaze 7.09 (Linux 2.6.22)', 'accuracy': '88', 'line': '61524', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.22']}]} {'name': 'Linux 2.6.32', 'accuracy': '88', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '88', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '88', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
+    <t>Linux 3.10</t>
+  </si>
+  <si>
+    <t>HP P2000 G3 NAS device</t>
   </si>
   <si>
     <t>53</t>
@@ -110,31 +110,22 @@
     <t>172.16.1.188</t>
   </si>
   <si>
-    <t>{'name': 'HP P2000 G3 NAS device', 'accuracy': '93', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55599', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Infomir MAG-250 set-top box', 'accuracy': '92', 'line': '59627', 'osclass': [{'type': 'media device', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'media device', 'vendor': 'Infomir', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '92', 'cpe': ['cpe:/h:infomir:mag-250']}]} {'name': 'Ubiquiti AirMax NanoStation WAP (Linux 2.6.32)', 'accuracy': '92', 'line': '61697', 'osclass': [{'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}, {'type': 'WAP', 'vendor': 'Ubiquiti', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '92', 'cpe': ['cpe:/h:ubnt:airmax_nanostation']}]} {'name': 'Linux 3.10 - 4.11', 'accuracy': '92', 'line': '63439', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.11 - 3.12', 'accuracy': '92', 'line': '63543', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2', 'accuracy': '92', 'line': '65011', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'Linux 3.7', 'accuracy': '92', 'line': '65885', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3.7']}]} {'name': 'Linux 5.0', 'accuracy': '92', 'line': '68042', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5.0']}]} {'name': 'Linux 5.1', 'accuracy': '92', 'line': '68121', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '5.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:5.1']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Microsoft Windows Server 2008 SP1 or Windows Server 2008 R2', 'accuracy': '85', 'line': '75297', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2008', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2008::sp1', 'cpe:/o:microsoft:windows_server_2008:r2']}]} {'name': 'Microsoft Windows XP SP3', 'accuracy': '85', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Crestron XPanel control system', 'accuracy': '90', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '87', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.1', 'accuracy': '87', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.16', 'accuracy': '87', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.2', 'accuracy': '87', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '87', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '87', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'Adtran 424RG FTTH gateway', 'accuracy': '86', 'line': '1576', 'osclass': [{'type': 'specialized', 'vendor': 'Adtran', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '86', 'cpe': ['cpe:/h:adtran:424rg']}]} {'name': 'Linux 2.6.32', 'accuracy': '86', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.32 - 3.1', 'accuracy': '86', 'line': '56505', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Microsoft Windows XP SP3', 'accuracy': '92', 'line': '84871', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '92', 'cpe': ['cpe:/o:microsoft:windows_xp::sp3']}]} {'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]} {'name': 'FreeBSD 6.2-RELEASE', 'accuracy': '86', 'line': '27735', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '6.X', 'accuracy': '86', 'cpe': ['cpe:/o:freebsd:freebsd:6.2']}]} {'name': 'Microsoft Windows XP SP2', 'accuracy': '85', 'line': '81595', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': 'XP', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_xp::sp2']}]} {'name': 'FreeBSD 10.3-STABLE', 'accuracy': '85', 'line': '26095', 'osclass': [{'type': 'general purpose', 'vendor': 'FreeBSD', 'osfamily': 'FreeBSD', 'osgen': '10.X', 'accuracy': '85', 'cpe': ['cpe:/o:freebsd:freebsd:10.3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Linux 3.1', 'accuracy': '95', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.2', 'accuracy': '95', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '94', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '94', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '94', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '93', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.16', 'accuracy': '93', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '92', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.1 - 3.2', 'accuracy': '92', 'line': '62937', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2 - 4.9', 'accuracy': '92', 'line': '65314', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]} {'name': 'Linux 3.7 - 3.10', 'accuracy': '92', 'line': '65945', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Microsoft Windows Server 2016', 'accuracy': '91', 'line': '76195', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2016', 'accuracy': '91', 'cpe': ['cpe:/o:microsoft:windows_server_2016']}]} {'name': 'Microsoft Windows Server 2012', 'accuracy': '85', 'line': '75539', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012']}]} {'name': 'Microsoft Windows Server 2012 or Windows Server 2012 R2', 'accuracy': '85', 'line': '75672', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2012 R2', 'accuracy': '85', 'line': '75710', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2012', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2012:r2']}]} {'name': 'Microsoft Windows Server 2008 R2', 'accuracy': '85', 'line': '74585', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '2008', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_server_2008:r2']}]} {'name': 'Microsoft Windows 10 1607', 'accuracy': '85', 'line': '69694', 'osclass': [{'type': 'general purpose', 'vendor': 'Microsoft', 'osfamily': 'Windows', 'osgen': '10', 'accuracy': '85', 'cpe': ['cpe:/o:microsoft:windows_10:1607']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Linux 3.1', 'accuracy': '95', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.2', 'accuracy': '95', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '95', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '94', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '94', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '94', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '93', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '93', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.16', 'accuracy': '93', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '93', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Adtran 424RG FTTH gateway', 'accuracy': '92', 'line': '1576', 'osclass': [{'type': 'specialized', 'vendor': 'Adtran', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '92', 'cpe': ['cpe:/h:adtran:424rg']}]} {'name': 'Linux 2.6.32', 'accuracy': '92', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '92', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.1 - 3.2', 'accuracy': '92', 'line': '62937', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.2 - 4.9', 'accuracy': '92', 'line': '65314', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:3']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '4.X', 'accuracy': '92', 'cpe': ['cpe:/o:linux:linux_kernel:4']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'Crestron XPanel control system', 'accuracy': '90', 'line': '19543', 'osclass': [{'type': 'specialized', 'vendor': 'Crestron', 'osfamily': '2-Series', 'osgen': None, 'accuracy': '90', 'cpe': ['cpe:/o:crestron:2_series']}]} {'name': 'ASUS RT-N56U WAP (Linux 3.4)', 'accuracy': '87', 'line': '8398', 'osclass': [{'type': 'WAP', 'vendor': 'Asus', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:asus:rt-n56u']}, {'type': 'WAP', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.4']}]} {'name': 'Linux 3.1', 'accuracy': '87', 'line': '62917', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.1']}]} {'name': 'Linux 3.16', 'accuracy': '87', 'line': '64171', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.16']}]} {'name': 'Linux 3.2', 'accuracy': '87', 'line': '64664', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:3.2']}]} {'name': 'HP P2000 G3 NAS device', 'accuracy': '87', 'line': '35037', 'osclass': [{'type': 'storage-misc', 'vendor': 'HP', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:hp:p2000_g3']}]} {'name': 'AXIS 210A or 211 Network Camera (Linux 2.6.17)', 'accuracy': '87', 'line': '61815', 'osclass': [{'type': 'webcam', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '87', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.17']}, {'type': 'webcam', 'vendor': 'AXIS', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': ['cpe:/h:axis:210a_network_camera', 'cpe:/h:axis:211_network_camera']}]} {'name': 'Linux 2.6.32', 'accuracy': '86', 'line': '55363', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6.32']}]} {'name': 'Linux 2.6.39 - 3.2', 'accuracy': '86', 'line': '58264', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '2.6.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:2.6']}, {'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]} {'name': 'Linux 3.1 - 3.2', 'accuracy': '86', 'line': '62937', 'osclass': [{'type': 'general purpose', 'vendor': 'Linux', 'osfamily': 'Linux', 'osgen': '3.X', 'accuracy': '86', 'cpe': ['cpe:/o:linux:linux_kernel:3']}]}</t>
-  </si>
-  <si>
-    <t>{'name': 'AVtech Room Alert 26W environmental monitor', 'accuracy': '87', 'line': '9131', 'osclass': [{'type': 'specialized', 'vendor': 'AVtech', 'osfamily': 'embedded', 'osgen': None, 'accuracy': '87', 'cpe': []}]}</t>
+    <t>Linux 3.16</t>
+  </si>
+  <si>
+    <t>Microsoft Windows XP SP3</t>
+  </si>
+  <si>
+    <t>Crestron XPanel control system</t>
+  </si>
+  <si>
+    <t>Linux 3.1</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2016</t>
+  </si>
+  <si>
+    <t>AVtech Room Alert 26W environmental monitor</t>
   </si>
   <si>
     <t>135, 139, 445, 3389, 5357</t>
@@ -622,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -666,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -680,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -691,10 +682,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -705,10 +696,10 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -716,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -730,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -744,7 +735,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -752,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -766,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -780,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -788,13 +779,13 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -802,13 +793,13 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -816,13 +807,13 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -830,13 +821,13 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -844,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -852,13 +843,13 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/var_network_inventory.xlsx
+++ b/var_network_inventory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Host</t>
   </si>
@@ -44,9 +44,6 @@
     <t>172.16.10.225</t>
   </si>
   <si>
-    <t>Linux 3.10</t>
-  </si>
-  <si>
     <t>HP P2000 G3 NAS device</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>172.16.1.188</t>
-  </si>
-  <si>
-    <t>Linux 3.16</t>
   </si>
   <si>
     <t>Microsoft Windows XP SP3</t>
@@ -577,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -588,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -599,13 +593,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,10 +610,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -654,210 +648,210 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/var_network_inventory.xlsx
+++ b/var_network_inventory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Host</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>172.16.10.225</t>
+  </si>
+  <si>
+    <t>Linux 3.16</t>
   </si>
   <si>
     <t>HP P2000 G3 NAS device</t>
@@ -571,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -582,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -596,10 +599,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -607,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -648,210 +651,210 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/var_network_inventory.xlsx
+++ b/var_network_inventory.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SUDZ4DEV/cyber-research/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0763F34A-4C2E-7247-820F-F03421C491A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-51200" yWindow="14920" windowWidth="51200" windowHeight="26600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web Services" sheetId="1" r:id="rId1"/>
     <sheet name="Business Services" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Host</t>
   </si>
   <si>
-    <t>Hostname</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
     <t>HP P2000 G3 NAS device</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>22, 80, 443</t>
   </si>
   <si>
@@ -125,9 +125,6 @@
     <t>135, 139, 445, 3389, 5357</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>135, 3389</t>
   </si>
   <si>
@@ -186,13 +183,25 @@
   </si>
   <si>
     <t>FA:16:3E:55:3B:93</t>
+  </si>
+  <si>
+    <t>DHCP Server</t>
+  </si>
+  <si>
+    <t>WEBSITE-1 172.16.0/24</t>
+  </si>
+  <si>
+    <t>BUSINESS-1 172.16.1.0/24</t>
+  </si>
+  <si>
+    <t>Kali Linux PenTesting Machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,16 +217,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,14 +270,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,13 +313,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +365,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -333,6 +399,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -367,9 +434,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,319 +610,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>